--- a/Data/Results/Affinity_Summary.xlsx
+++ b/Data/Results/Affinity_Summary.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="147">
   <si>
     <t>Ticker</t>
   </si>
@@ -25,82 +25,436 @@
     <t>Category</t>
   </si>
   <si>
-    <t>ADBE</t>
-  </si>
-  <si>
-    <t>ABNB</t>
-  </si>
-  <si>
-    <t>ATUS</t>
-  </si>
-  <si>
-    <t>AMC</t>
-  </si>
-  <si>
-    <t>EXPE</t>
-  </si>
-  <si>
-    <t>NVDA</t>
-  </si>
-  <si>
-    <t>PAYC</t>
-  </si>
-  <si>
-    <t>PYPL</t>
-  </si>
-  <si>
-    <t>TTWO</t>
-  </si>
-  <si>
-    <t>VIAC</t>
-  </si>
-  <si>
-    <t>ZUO</t>
-  </si>
-  <si>
-    <t>CHGG</t>
-  </si>
-  <si>
-    <t>IAC</t>
-  </si>
-  <si>
-    <t>ETSY</t>
-  </si>
-  <si>
-    <t>UBER</t>
-  </si>
-  <si>
-    <t>KMX</t>
-  </si>
-  <si>
-    <t>RKT</t>
-  </si>
-  <si>
-    <t>FYBR</t>
-  </si>
-  <si>
-    <t>SSTK</t>
-  </si>
-  <si>
-    <t>TSQ</t>
-  </si>
-  <si>
-    <t>YELP</t>
-  </si>
-  <si>
-    <t>PCTY</t>
-  </si>
-  <si>
-    <t>CONE</t>
-  </si>
-  <si>
-    <t>TDS</t>
-  </si>
-  <si>
-    <t>USM</t>
-  </si>
-  <si>
-    <t>MSTR</t>
+    <t>ATEN_2017</t>
+  </si>
+  <si>
+    <t>ATVI_2015</t>
+  </si>
+  <si>
+    <t>ADBE_2016</t>
+  </si>
+  <si>
+    <t>AMD_2017</t>
+  </si>
+  <si>
+    <t>AKAM_2017</t>
+  </si>
+  <si>
+    <t>ATUS_2019</t>
+  </si>
+  <si>
+    <t>AMZN_2015</t>
+  </si>
+  <si>
+    <t>AMC_2015</t>
+  </si>
+  <si>
+    <t>AMC_2019</t>
+  </si>
+  <si>
+    <t>AMCX_2016</t>
+  </si>
+  <si>
+    <t>ANGI_2018</t>
+  </si>
+  <si>
+    <t>APPF_2017</t>
+  </si>
+  <si>
+    <t>AAPL_2015</t>
+  </si>
+  <si>
+    <t>AMAT_2016</t>
+  </si>
+  <si>
+    <t>ADSK_2015</t>
+  </si>
+  <si>
+    <t>BBY_2015</t>
+  </si>
+  <si>
+    <t>BKI_2017</t>
+  </si>
+  <si>
+    <t>BKNG_2017</t>
+  </si>
+  <si>
+    <t>BSX_2015</t>
+  </si>
+  <si>
+    <t>CHTR_2016</t>
+  </si>
+  <si>
+    <t>DLR_2015</t>
+  </si>
+  <si>
+    <t>DISH_2013</t>
+  </si>
+  <si>
+    <t>DISH_2017</t>
+  </si>
+  <si>
+    <t>DISH_2020</t>
+  </si>
+  <si>
+    <t>EA_2016</t>
+  </si>
+  <si>
+    <t>EFX_2018</t>
+  </si>
+  <si>
+    <t>EQIX_2019</t>
+  </si>
+  <si>
+    <t>FB_2015</t>
+  </si>
+  <si>
+    <t>FIS_2020</t>
+  </si>
+  <si>
+    <t>FIVN_2016</t>
+  </si>
+  <si>
+    <t>FLT_2014</t>
+  </si>
+  <si>
+    <t>GME_2017</t>
+  </si>
+  <si>
+    <t>GOOGL_2018</t>
+  </si>
+  <si>
+    <t>HPQ_2015</t>
+  </si>
+  <si>
+    <t>IBM_2015</t>
+  </si>
+  <si>
+    <t>IBM_2019</t>
+  </si>
+  <si>
+    <t>INTC_2016</t>
+  </si>
+  <si>
+    <t>INTU_2015</t>
+  </si>
+  <si>
+    <t>LRCX_2015</t>
+  </si>
+  <si>
+    <t>LYV_2017</t>
+  </si>
+  <si>
+    <t>MU_2014</t>
+  </si>
+  <si>
+    <t>MSFT_2018</t>
+  </si>
+  <si>
+    <t>MDB_2019</t>
+  </si>
+  <si>
+    <t>MSI_2017</t>
+  </si>
+  <si>
+    <t>NTAP_2017</t>
+  </si>
+  <si>
+    <t>NFLX_2016</t>
+  </si>
+  <si>
+    <t>NVDA_2015</t>
+  </si>
+  <si>
+    <t>OMC_2017</t>
+  </si>
+  <si>
+    <t>ORCL_2016</t>
+  </si>
+  <si>
+    <t>PAYC_2018</t>
+  </si>
+  <si>
+    <t>PYPL_2018</t>
+  </si>
+  <si>
+    <t>QRVO_2018</t>
+  </si>
+  <si>
+    <t>QCOM_2015</t>
+  </si>
+  <si>
+    <t>QUOT_2018</t>
+  </si>
+  <si>
+    <t>SABR_2016</t>
+  </si>
+  <si>
+    <t>CRM_2017</t>
+  </si>
+  <si>
+    <t>SBAC_2013</t>
+  </si>
+  <si>
+    <t>NOW_2018</t>
+  </si>
+  <si>
+    <t>SQ_2017</t>
+  </si>
+  <si>
+    <t>SSNC_2016</t>
+  </si>
+  <si>
+    <t>STMP_2015</t>
+  </si>
+  <si>
+    <t>SNPS_2017</t>
+  </si>
+  <si>
+    <t>TTWO_2015</t>
+  </si>
+  <si>
+    <t>TXN_2015</t>
+  </si>
+  <si>
+    <t>TMUS_2017</t>
+  </si>
+  <si>
+    <t>TWLO_2018</t>
+  </si>
+  <si>
+    <t>TWTR_2018</t>
+  </si>
+  <si>
+    <t>UPLD_2016</t>
+  </si>
+  <si>
+    <t>VRSN_2016</t>
+  </si>
+  <si>
+    <t>V_2017</t>
+  </si>
+  <si>
+    <t>VIAC_2016</t>
+  </si>
+  <si>
+    <t>WDAY_2018</t>
+  </si>
+  <si>
+    <t>ZUO_2019</t>
+  </si>
+  <si>
+    <t>KN_2016</t>
+  </si>
+  <si>
+    <t>ZNGA_2017</t>
+  </si>
+  <si>
+    <t>EMR_2014</t>
+  </si>
+  <si>
+    <t>ARLO_2020</t>
+  </si>
+  <si>
+    <t>CHGG_2018</t>
+  </si>
+  <si>
+    <t>AUD_2015</t>
+  </si>
+  <si>
+    <t>SIRI_2017</t>
+  </si>
+  <si>
+    <t>SBGI_2013</t>
+  </si>
+  <si>
+    <t>SBGI_2018</t>
+  </si>
+  <si>
+    <t>IHRT_2014</t>
+  </si>
+  <si>
+    <t>IHRT_2018</t>
+  </si>
+  <si>
+    <t>IRBT_2018</t>
+  </si>
+  <si>
+    <t>ROKU_2018</t>
+  </si>
+  <si>
+    <t>EBAY_2018</t>
+  </si>
+  <si>
+    <t>MTCH_2013</t>
+  </si>
+  <si>
+    <t>MTCH_2018</t>
+  </si>
+  <si>
+    <t>IPG_2015</t>
+  </si>
+  <si>
+    <t>WU_2017</t>
+  </si>
+  <si>
+    <t>TRIP_2012</t>
+  </si>
+  <si>
+    <t>WWE_2014</t>
+  </si>
+  <si>
+    <t>CMCSA_2017</t>
+  </si>
+  <si>
+    <t>SFIX_2019</t>
+  </si>
+  <si>
+    <t>RNG_2017</t>
+  </si>
+  <si>
+    <t>ETSY_2018</t>
+  </si>
+  <si>
+    <t>PRTS_2017</t>
+  </si>
+  <si>
+    <t>UBER_2020</t>
+  </si>
+  <si>
+    <t>PRPL_2015</t>
+  </si>
+  <si>
+    <t>KMX_2015</t>
+  </si>
+  <si>
+    <t>ODP_2013</t>
+  </si>
+  <si>
+    <t>NYT_2017</t>
+  </si>
+  <si>
+    <t>WKHS_2016</t>
+  </si>
+  <si>
+    <t>AMT_2014</t>
+  </si>
+  <si>
+    <t>LUMN_2017</t>
+  </si>
+  <si>
+    <t>FYBR_2011</t>
+  </si>
+  <si>
+    <t>FYBR_2017</t>
+  </si>
+  <si>
+    <t>CCOI_2013</t>
+  </si>
+  <si>
+    <t>CNSL_2013</t>
+  </si>
+  <si>
+    <t>CALX_2016</t>
+  </si>
+  <si>
+    <t>IDT_2015</t>
+  </si>
+  <si>
+    <t>SSTK_2016</t>
+  </si>
+  <si>
+    <t>SSP_2013</t>
+  </si>
+  <si>
+    <t>SSP_2018</t>
+  </si>
+  <si>
+    <t>CMLS_2015</t>
+  </si>
+  <si>
+    <t>NWSA_2016</t>
+  </si>
+  <si>
+    <t>TSQ_2015</t>
+  </si>
+  <si>
+    <t>SGA_2017</t>
+  </si>
+  <si>
+    <t>YELP_2016</t>
+  </si>
+  <si>
+    <t>TWOU_2018</t>
+  </si>
+  <si>
+    <t>GRPN_2016</t>
+  </si>
+  <si>
+    <t>DBX_2019</t>
+  </si>
+  <si>
+    <t>PCTY_2015</t>
+  </si>
+  <si>
+    <t>PCTY_2020</t>
+  </si>
+  <si>
+    <t>BOX_2017</t>
+  </si>
+  <si>
+    <t>CONE_2017</t>
+  </si>
+  <si>
+    <t>COR_2019</t>
+  </si>
+  <si>
+    <t>TREE_2016</t>
+  </si>
+  <si>
+    <t>ENV_2013</t>
+  </si>
+  <si>
+    <t>ENV_2017</t>
+  </si>
+  <si>
+    <t>FISV_2016</t>
+  </si>
+  <si>
+    <t>SGMS_2017</t>
+  </si>
+  <si>
+    <t>TDS_2018</t>
+  </si>
+  <si>
+    <t>USM_2018</t>
+  </si>
+  <si>
+    <t>SHEN_2016</t>
+  </si>
+  <si>
+    <t>MSTR_2016</t>
+  </si>
+  <si>
+    <t>W_2017</t>
+  </si>
+  <si>
+    <t>OSTK_2012</t>
+  </si>
+  <si>
+    <t>OSTK_2019</t>
+  </si>
+  <si>
+    <t>MELI_2015</t>
+  </si>
+  <si>
+    <t>CVNA_2019</t>
+  </si>
+  <si>
+    <t>MVIS_2015</t>
+  </si>
+  <si>
+    <t>SPSC_2015</t>
   </si>
 </sst>
 </file>
@@ -458,7 +812,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -483,7 +837,7 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -494,7 +848,7 @@
         <v>4</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -505,7 +859,7 @@
         <v>5</v>
       </c>
       <c r="C4">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -516,7 +870,7 @@
         <v>6</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -527,7 +881,7 @@
         <v>7</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -538,7 +892,7 @@
         <v>8</v>
       </c>
       <c r="C7">
-        <v>26</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -560,7 +914,7 @@
         <v>10</v>
       </c>
       <c r="C9">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -571,7 +925,7 @@
         <v>11</v>
       </c>
       <c r="C10">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -582,7 +936,7 @@
         <v>12</v>
       </c>
       <c r="C11">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -593,7 +947,7 @@
         <v>13</v>
       </c>
       <c r="C12">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -604,7 +958,7 @@
         <v>14</v>
       </c>
       <c r="C13">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -615,7 +969,7 @@
         <v>15</v>
       </c>
       <c r="C14">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -626,7 +980,7 @@
         <v>16</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -637,7 +991,7 @@
         <v>17</v>
       </c>
       <c r="C16">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -648,7 +1002,7 @@
         <v>18</v>
       </c>
       <c r="C17">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -659,7 +1013,7 @@
         <v>19</v>
       </c>
       <c r="C18">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -670,7 +1024,7 @@
         <v>20</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -681,7 +1035,7 @@
         <v>21</v>
       </c>
       <c r="C20">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -692,7 +1046,7 @@
         <v>22</v>
       </c>
       <c r="C21">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -703,7 +1057,7 @@
         <v>23</v>
       </c>
       <c r="C22">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -714,7 +1068,7 @@
         <v>24</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -725,7 +1079,7 @@
         <v>25</v>
       </c>
       <c r="C24">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -736,7 +1090,7 @@
         <v>26</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -747,7 +1101,7 @@
         <v>27</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -758,7 +1112,1305 @@
         <v>28</v>
       </c>
       <c r="C27">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>39</v>
+      </c>
+      <c r="C38">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>40</v>
+      </c>
+      <c r="C39">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C40">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>42</v>
+      </c>
+      <c r="C41">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>43</v>
+      </c>
+      <c r="C42">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>44</v>
+      </c>
+      <c r="C43">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>45</v>
+      </c>
+      <c r="C44">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>46</v>
+      </c>
+      <c r="C45">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>47</v>
+      </c>
+      <c r="C46">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>48</v>
+      </c>
+      <c r="C47">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>49</v>
+      </c>
+      <c r="C48">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>50</v>
+      </c>
+      <c r="C49">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>51</v>
+      </c>
+      <c r="C50">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>52</v>
+      </c>
+      <c r="C51">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>53</v>
+      </c>
+      <c r="C52">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>54</v>
+      </c>
+      <c r="C53">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>55</v>
+      </c>
+      <c r="C54">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>56</v>
+      </c>
+      <c r="C55">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>57</v>
+      </c>
+      <c r="C56">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>58</v>
+      </c>
+      <c r="C57">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>59</v>
+      </c>
+      <c r="C58">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>60</v>
+      </c>
+      <c r="C59">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>61</v>
+      </c>
+      <c r="C60">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>62</v>
+      </c>
+      <c r="C61">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>63</v>
+      </c>
+      <c r="C62">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>64</v>
+      </c>
+      <c r="C63">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>65</v>
+      </c>
+      <c r="C64">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>66</v>
+      </c>
+      <c r="C65">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>67</v>
+      </c>
+      <c r="C66">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
+        <v>68</v>
+      </c>
+      <c r="C67">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
+        <v>69</v>
+      </c>
+      <c r="C68">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
+        <v>70</v>
+      </c>
+      <c r="C69">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70" t="s">
+        <v>71</v>
+      </c>
+      <c r="C70">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71" t="s">
+        <v>72</v>
+      </c>
+      <c r="C71">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72" t="s">
+        <v>73</v>
+      </c>
+      <c r="C72">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73" t="s">
+        <v>74</v>
+      </c>
+      <c r="C73">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74" t="s">
+        <v>75</v>
+      </c>
+      <c r="C74">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75" t="s">
+        <v>76</v>
+      </c>
+      <c r="C75">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76" t="s">
+        <v>77</v>
+      </c>
+      <c r="C76">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77" t="s">
+        <v>78</v>
+      </c>
+      <c r="C77">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78" t="s">
+        <v>79</v>
+      </c>
+      <c r="C78">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79" t="s">
+        <v>80</v>
+      </c>
+      <c r="C79">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80" t="s">
+        <v>81</v>
+      </c>
+      <c r="C80">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81" t="s">
+        <v>82</v>
+      </c>
+      <c r="C81">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82" t="s">
+        <v>83</v>
+      </c>
+      <c r="C82">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83" t="s">
+        <v>84</v>
+      </c>
+      <c r="C83">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84" t="s">
+        <v>85</v>
+      </c>
+      <c r="C84">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="B85" t="s">
+        <v>86</v>
+      </c>
+      <c r="C85">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+      <c r="B86" t="s">
+        <v>87</v>
+      </c>
+      <c r="C86">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="1">
+        <v>85</v>
+      </c>
+      <c r="B87" t="s">
+        <v>88</v>
+      </c>
+      <c r="C87">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="1">
+        <v>86</v>
+      </c>
+      <c r="B88" t="s">
+        <v>89</v>
+      </c>
+      <c r="C88">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" s="1">
+        <v>87</v>
+      </c>
+      <c r="B89" t="s">
+        <v>90</v>
+      </c>
+      <c r="C89">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="1">
+        <v>88</v>
+      </c>
+      <c r="B90" t="s">
+        <v>91</v>
+      </c>
+      <c r="C90">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="1">
+        <v>89</v>
+      </c>
+      <c r="B91" t="s">
+        <v>92</v>
+      </c>
+      <c r="C91">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="1">
+        <v>90</v>
+      </c>
+      <c r="B92" t="s">
+        <v>93</v>
+      </c>
+      <c r="C92">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="1">
+        <v>91</v>
+      </c>
+      <c r="B93" t="s">
+        <v>94</v>
+      </c>
+      <c r="C93">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" s="1">
+        <v>92</v>
+      </c>
+      <c r="B94" t="s">
+        <v>95</v>
+      </c>
+      <c r="C94">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="1">
+        <v>93</v>
+      </c>
+      <c r="B95" t="s">
+        <v>96</v>
+      </c>
+      <c r="C95">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+      <c r="B96" t="s">
+        <v>97</v>
+      </c>
+      <c r="C96">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+      <c r="B97" t="s">
+        <v>98</v>
+      </c>
+      <c r="C97">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" s="1">
+        <v>96</v>
+      </c>
+      <c r="B98" t="s">
+        <v>99</v>
+      </c>
+      <c r="C98">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" s="1">
+        <v>97</v>
+      </c>
+      <c r="B99" t="s">
+        <v>100</v>
+      </c>
+      <c r="C99">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="1">
+        <v>98</v>
+      </c>
+      <c r="B100" t="s">
+        <v>101</v>
+      </c>
+      <c r="C100">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" s="1">
+        <v>99</v>
+      </c>
+      <c r="B101" t="s">
+        <v>102</v>
+      </c>
+      <c r="C101">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" s="1">
+        <v>100</v>
+      </c>
+      <c r="B102" t="s">
+        <v>103</v>
+      </c>
+      <c r="C102">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" s="1">
+        <v>101</v>
+      </c>
+      <c r="B103" t="s">
+        <v>104</v>
+      </c>
+      <c r="C103">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" s="1">
+        <v>102</v>
+      </c>
+      <c r="B104" t="s">
+        <v>105</v>
+      </c>
+      <c r="C104">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" s="1">
+        <v>103</v>
+      </c>
+      <c r="B105" t="s">
+        <v>106</v>
+      </c>
+      <c r="C105">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" s="1">
+        <v>104</v>
+      </c>
+      <c r="B106" t="s">
+        <v>107</v>
+      </c>
+      <c r="C106">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" s="1">
+        <v>105</v>
+      </c>
+      <c r="B107" t="s">
+        <v>108</v>
+      </c>
+      <c r="C107">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" s="1">
+        <v>106</v>
+      </c>
+      <c r="B108" t="s">
+        <v>109</v>
+      </c>
+      <c r="C108">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" s="1">
+        <v>107</v>
+      </c>
+      <c r="B109" t="s">
+        <v>110</v>
+      </c>
+      <c r="C109">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" s="1">
+        <v>108</v>
+      </c>
+      <c r="B110" t="s">
+        <v>111</v>
+      </c>
+      <c r="C110">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" s="1">
+        <v>109</v>
+      </c>
+      <c r="B111" t="s">
+        <v>112</v>
+      </c>
+      <c r="C111">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" s="1">
+        <v>110</v>
+      </c>
+      <c r="B112" t="s">
+        <v>113</v>
+      </c>
+      <c r="C112">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" s="1">
+        <v>111</v>
+      </c>
+      <c r="B113" t="s">
+        <v>114</v>
+      </c>
+      <c r="C113">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" s="1">
+        <v>112</v>
+      </c>
+      <c r="B114" t="s">
+        <v>115</v>
+      </c>
+      <c r="C114">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" s="1">
+        <v>113</v>
+      </c>
+      <c r="B115" t="s">
+        <v>116</v>
+      </c>
+      <c r="C115">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" s="1">
+        <v>114</v>
+      </c>
+      <c r="B116" t="s">
+        <v>117</v>
+      </c>
+      <c r="C116">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" s="1">
+        <v>115</v>
+      </c>
+      <c r="B117" t="s">
+        <v>118</v>
+      </c>
+      <c r="C117">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" s="1">
+        <v>116</v>
+      </c>
+      <c r="B118" t="s">
+        <v>119</v>
+      </c>
+      <c r="C118">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" s="1">
+        <v>117</v>
+      </c>
+      <c r="B119" t="s">
+        <v>120</v>
+      </c>
+      <c r="C119">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" s="1">
+        <v>118</v>
+      </c>
+      <c r="B120" t="s">
+        <v>121</v>
+      </c>
+      <c r="C120">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" s="1">
+        <v>119</v>
+      </c>
+      <c r="B121" t="s">
+        <v>122</v>
+      </c>
+      <c r="C121">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" s="1">
+        <v>120</v>
+      </c>
+      <c r="B122" t="s">
+        <v>123</v>
+      </c>
+      <c r="C122">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" s="1">
+        <v>121</v>
+      </c>
+      <c r="B123" t="s">
+        <v>124</v>
+      </c>
+      <c r="C123">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" s="1">
+        <v>122</v>
+      </c>
+      <c r="B124" t="s">
+        <v>125</v>
+      </c>
+      <c r="C124">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" s="1">
+        <v>123</v>
+      </c>
+      <c r="B125" t="s">
+        <v>126</v>
+      </c>
+      <c r="C125">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" s="1">
+        <v>124</v>
+      </c>
+      <c r="B126" t="s">
+        <v>127</v>
+      </c>
+      <c r="C126">
         <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" s="1">
+        <v>125</v>
+      </c>
+      <c r="B127" t="s">
+        <v>128</v>
+      </c>
+      <c r="C127">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" s="1">
+        <v>126</v>
+      </c>
+      <c r="B128" t="s">
+        <v>129</v>
+      </c>
+      <c r="C128">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" s="1">
+        <v>127</v>
+      </c>
+      <c r="B129" t="s">
+        <v>130</v>
+      </c>
+      <c r="C129">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" s="1">
+        <v>128</v>
+      </c>
+      <c r="B130" t="s">
+        <v>131</v>
+      </c>
+      <c r="C130">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" s="1">
+        <v>129</v>
+      </c>
+      <c r="B131" t="s">
+        <v>132</v>
+      </c>
+      <c r="C131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" s="1">
+        <v>130</v>
+      </c>
+      <c r="B132" t="s">
+        <v>133</v>
+      </c>
+      <c r="C132">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" s="1">
+        <v>131</v>
+      </c>
+      <c r="B133" t="s">
+        <v>134</v>
+      </c>
+      <c r="C133">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" s="1">
+        <v>132</v>
+      </c>
+      <c r="B134" t="s">
+        <v>135</v>
+      </c>
+      <c r="C134">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" s="1">
+        <v>133</v>
+      </c>
+      <c r="B135" t="s">
+        <v>136</v>
+      </c>
+      <c r="C135">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" s="1">
+        <v>134</v>
+      </c>
+      <c r="B136" t="s">
+        <v>137</v>
+      </c>
+      <c r="C136">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" s="1">
+        <v>135</v>
+      </c>
+      <c r="B137" t="s">
+        <v>138</v>
+      </c>
+      <c r="C137">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" s="1">
+        <v>136</v>
+      </c>
+      <c r="B138" t="s">
+        <v>139</v>
+      </c>
+      <c r="C138">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" s="1">
+        <v>137</v>
+      </c>
+      <c r="B139" t="s">
+        <v>140</v>
+      </c>
+      <c r="C139">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" s="1">
+        <v>138</v>
+      </c>
+      <c r="B140" t="s">
+        <v>141</v>
+      </c>
+      <c r="C140">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" s="1">
+        <v>139</v>
+      </c>
+      <c r="B141" t="s">
+        <v>142</v>
+      </c>
+      <c r="C141">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142" s="1">
+        <v>140</v>
+      </c>
+      <c r="B142" t="s">
+        <v>143</v>
+      </c>
+      <c r="C142">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" s="1">
+        <v>141</v>
+      </c>
+      <c r="B143" t="s">
+        <v>144</v>
+      </c>
+      <c r="C143">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" s="1">
+        <v>142</v>
+      </c>
+      <c r="B144" t="s">
+        <v>145</v>
+      </c>
+      <c r="C144">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" s="1">
+        <v>143</v>
+      </c>
+      <c r="B145" t="s">
+        <v>146</v>
+      </c>
+      <c r="C145">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Results/Affinity_Summary.xlsx
+++ b/Data/Results/Affinity_Summary.xlsx
@@ -16,31 +16,25 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="147">
   <si>
-    <t>Ticker</t>
+    <t>Center</t>
   </si>
   <si>
     <t>Count</t>
   </si>
   <si>
-    <t>Category</t>
-  </si>
-  <si>
     <t>ATEN_2017</t>
   </si>
   <si>
     <t>ATVI_2015</t>
   </si>
   <si>
-    <t>ADBE_2016</t>
-  </si>
-  <si>
-    <t>AMD_2017</t>
-  </si>
-  <si>
-    <t>AKAM_2017</t>
-  </si>
-  <si>
-    <t>ATUS_2019</t>
+    <t>ADBE_2015</t>
+  </si>
+  <si>
+    <t>AMD_2018</t>
+  </si>
+  <si>
+    <t>AKAM_2016</t>
   </si>
   <si>
     <t>AMZN_2015</t>
@@ -73,10 +67,10 @@
     <t>BBY_2015</t>
   </si>
   <si>
-    <t>BKI_2017</t>
-  </si>
-  <si>
-    <t>BKNG_2017</t>
+    <t>BKI_2018</t>
+  </si>
+  <si>
+    <t>BKNG_2014</t>
   </si>
   <si>
     <t>BSX_2015</t>
@@ -97,19 +91,22 @@
     <t>DISH_2020</t>
   </si>
   <si>
-    <t>EA_2016</t>
+    <t>EA_2017</t>
   </si>
   <si>
     <t>EFX_2018</t>
   </si>
   <si>
-    <t>EQIX_2019</t>
+    <t>EQIX_2017</t>
+  </si>
+  <si>
+    <t>EXPE_2018</t>
   </si>
   <si>
     <t>FB_2015</t>
   </si>
   <si>
-    <t>FIS_2020</t>
+    <t>FIS_2019</t>
   </si>
   <si>
     <t>FIVN_2016</t>
@@ -118,7 +115,7 @@
     <t>FLT_2014</t>
   </si>
   <si>
-    <t>GME_2017</t>
+    <t>GME_2016</t>
   </si>
   <si>
     <t>GOOGL_2018</t>
@@ -163,7 +160,7 @@
     <t>NFLX_2016</t>
   </si>
   <si>
-    <t>NVDA_2015</t>
+    <t>NVDA_2019</t>
   </si>
   <si>
     <t>OMC_2017</t>
@@ -175,7 +172,7 @@
     <t>PAYC_2018</t>
   </si>
   <si>
-    <t>PYPL_2018</t>
+    <t>PYPL_2015</t>
   </si>
   <si>
     <t>QRVO_2018</t>
@@ -184,7 +181,7 @@
     <t>QCOM_2015</t>
   </si>
   <si>
-    <t>QUOT_2018</t>
+    <t>QUOT_2017</t>
   </si>
   <si>
     <t>SABR_2016</t>
@@ -202,28 +199,28 @@
     <t>SQ_2017</t>
   </si>
   <si>
-    <t>SSNC_2016</t>
-  </si>
-  <si>
-    <t>STMP_2015</t>
+    <t>SSNC_2015</t>
+  </si>
+  <si>
+    <t>STMP_2016</t>
   </si>
   <si>
     <t>SNPS_2017</t>
   </si>
   <si>
-    <t>TTWO_2015</t>
+    <t>TTWO_2016</t>
   </si>
   <si>
     <t>TXN_2015</t>
   </si>
   <si>
-    <t>TMUS_2017</t>
+    <t>TMUS_2016</t>
   </si>
   <si>
     <t>TWLO_2018</t>
   </si>
   <si>
-    <t>TWTR_2018</t>
+    <t>TWTR_2017</t>
   </si>
   <si>
     <t>UPLD_2016</t>
@@ -238,7 +235,7 @@
     <t>VIAC_2016</t>
   </si>
   <si>
-    <t>WDAY_2018</t>
+    <t>WDAY_2017</t>
   </si>
   <si>
     <t>ZUO_2019</t>
@@ -247,22 +244,22 @@
     <t>KN_2016</t>
   </si>
   <si>
-    <t>ZNGA_2017</t>
+    <t>ZNGA_2015</t>
   </si>
   <si>
     <t>EMR_2014</t>
   </si>
   <si>
-    <t>ARLO_2020</t>
-  </si>
-  <si>
-    <t>CHGG_2018</t>
+    <t>CHGG_2017</t>
+  </si>
+  <si>
+    <t>IAC_2018</t>
   </si>
   <si>
     <t>AUD_2015</t>
   </si>
   <si>
-    <t>SIRI_2017</t>
+    <t>SIRI_2016</t>
   </si>
   <si>
     <t>SBGI_2013</t>
@@ -271,10 +268,10 @@
     <t>SBGI_2018</t>
   </si>
   <si>
-    <t>IHRT_2014</t>
-  </si>
-  <si>
-    <t>IHRT_2018</t>
+    <t>IHRT_2012</t>
+  </si>
+  <si>
+    <t>IHRT_2017</t>
   </si>
   <si>
     <t>IRBT_2018</t>
@@ -289,9 +286,6 @@
     <t>MTCH_2013</t>
   </si>
   <si>
-    <t>MTCH_2018</t>
-  </si>
-  <si>
     <t>IPG_2015</t>
   </si>
   <si>
@@ -310,7 +304,7 @@
     <t>SFIX_2019</t>
   </si>
   <si>
-    <t>RNG_2017</t>
+    <t>RNG_2018</t>
   </si>
   <si>
     <t>ETSY_2018</t>
@@ -325,13 +319,22 @@
     <t>PRPL_2015</t>
   </si>
   <si>
-    <t>KMX_2015</t>
-  </si>
-  <si>
-    <t>ODP_2013</t>
-  </si>
-  <si>
-    <t>NYT_2017</t>
+    <t>PRPL_2019</t>
+  </si>
+  <si>
+    <t>LOVE_2019</t>
+  </si>
+  <si>
+    <t>KMX_2016</t>
+  </si>
+  <si>
+    <t>ODP_2011</t>
+  </si>
+  <si>
+    <t>ODP_2015</t>
+  </si>
+  <si>
+    <t>NYT_2015</t>
   </si>
   <si>
     <t>WKHS_2016</t>
@@ -343,7 +346,7 @@
     <t>LUMN_2017</t>
   </si>
   <si>
-    <t>FYBR_2011</t>
+    <t>FYBR_2014</t>
   </si>
   <si>
     <t>FYBR_2017</t>
@@ -367,16 +370,13 @@
     <t>SSP_2013</t>
   </si>
   <si>
-    <t>SSP_2018</t>
-  </si>
-  <si>
     <t>CMLS_2015</t>
   </si>
   <si>
     <t>NWSA_2016</t>
   </si>
   <si>
-    <t>TSQ_2015</t>
+    <t>TSQ_2016</t>
   </si>
   <si>
     <t>SGA_2017</t>
@@ -385,10 +385,10 @@
     <t>YELP_2016</t>
   </si>
   <si>
-    <t>TWOU_2018</t>
-  </si>
-  <si>
-    <t>GRPN_2016</t>
+    <t>TWOU_2017</t>
+  </si>
+  <si>
+    <t>GRPN_2015</t>
   </si>
   <si>
     <t>DBX_2019</t>
@@ -403,22 +403,22 @@
     <t>BOX_2017</t>
   </si>
   <si>
-    <t>CONE_2017</t>
-  </si>
-  <si>
-    <t>COR_2019</t>
+    <t>COR_2018</t>
   </si>
   <si>
     <t>TREE_2016</t>
   </si>
   <si>
+    <t>LC_2019</t>
+  </si>
+  <si>
     <t>ENV_2013</t>
   </si>
   <si>
     <t>ENV_2017</t>
   </si>
   <si>
-    <t>FISV_2016</t>
+    <t>FISV_2015</t>
   </si>
   <si>
     <t>SGMS_2017</t>
@@ -439,10 +439,10 @@
     <t>W_2017</t>
   </si>
   <si>
-    <t>OSTK_2012</t>
-  </si>
-  <si>
-    <t>OSTK_2019</t>
+    <t>OSTK_2013</t>
+  </si>
+  <si>
+    <t>OSTK_2018</t>
   </si>
   <si>
     <t>MELI_2015</t>
@@ -812,16 +812,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C145"/>
+  <dimension ref="A1:C146"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -834,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2">
         <v>7</v>
@@ -845,7 +842,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3">
         <v>10</v>
@@ -856,7 +853,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4">
         <v>10</v>
@@ -867,10 +864,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -878,7 +875,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6">
         <v>10</v>
@@ -889,10 +886,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -900,10 +897,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -911,10 +908,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -922,10 +919,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -933,10 +930,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -944,10 +941,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -955,10 +952,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C13">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -966,10 +963,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C14">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -977,10 +974,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C15">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -988,10 +985,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C16">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -999,10 +996,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C17">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1010,10 +1007,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C18">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1021,10 +1018,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C19">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1032,10 +1029,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C20">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1043,10 +1040,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1054,10 +1048,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
-      </c>
-      <c r="C22">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1065,10 +1056,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1076,10 +1064,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C24">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1087,10 +1075,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25">
-        <v>5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1098,10 +1083,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>27</v>
-      </c>
-      <c r="C26">
-        <v>9</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1109,10 +1091,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>28</v>
-      </c>
-      <c r="C27">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1120,10 +1099,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>29</v>
-      </c>
-      <c r="C28">
-        <v>6</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1131,10 +1107,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>30</v>
-      </c>
-      <c r="C29">
-        <v>9</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1142,10 +1115,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>31</v>
-      </c>
-      <c r="C30">
-        <v>3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1153,10 +1123,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>32</v>
-      </c>
-      <c r="C31">
-        <v>7</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1164,714 +1131,519 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>33</v>
-      </c>
-      <c r="C32">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
-      </c>
-      <c r="C33">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>35</v>
-      </c>
-      <c r="C34">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>36</v>
-      </c>
-      <c r="C35">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>37</v>
-      </c>
-      <c r="C36">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>38</v>
-      </c>
-      <c r="C37">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>39</v>
-      </c>
-      <c r="C38">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>40</v>
-      </c>
-      <c r="C39">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>41</v>
-      </c>
-      <c r="C40">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>42</v>
-      </c>
-      <c r="C41">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>43</v>
-      </c>
-      <c r="C42">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>44</v>
-      </c>
-      <c r="C43">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>45</v>
-      </c>
-      <c r="C44">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>46</v>
-      </c>
-      <c r="C45">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>47</v>
-      </c>
-      <c r="C46">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>48</v>
-      </c>
-      <c r="C47">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>49</v>
-      </c>
-      <c r="C48">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>50</v>
-      </c>
-      <c r="C49">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>51</v>
-      </c>
-      <c r="C50">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>52</v>
-      </c>
-      <c r="C51">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>53</v>
-      </c>
-      <c r="C52">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>54</v>
-      </c>
-      <c r="C53">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>55</v>
-      </c>
-      <c r="C54">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
       <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>56</v>
-      </c>
-      <c r="C55">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
       <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>57</v>
-      </c>
-      <c r="C56">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
       <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>58</v>
-      </c>
-      <c r="C57">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
       <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>59</v>
-      </c>
-      <c r="C58">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
       <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>60</v>
-      </c>
-      <c r="C59">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
       <c r="A60" s="1">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>61</v>
-      </c>
-      <c r="C60">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
       <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>62</v>
-      </c>
-      <c r="C61">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
       <c r="A62" s="1">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>63</v>
-      </c>
-      <c r="C62">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
       <c r="A63" s="1">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>64</v>
-      </c>
-      <c r="C63">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
       <c r="A64" s="1">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>65</v>
-      </c>
-      <c r="C64">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
       <c r="A65" s="1">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>66</v>
-      </c>
-      <c r="C65">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
       <c r="A66" s="1">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>67</v>
-      </c>
-      <c r="C66">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
       <c r="A67" s="1">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>68</v>
-      </c>
-      <c r="C67">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
       <c r="A68" s="1">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>69</v>
-      </c>
-      <c r="C68">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
       <c r="A69" s="1">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>70</v>
-      </c>
-      <c r="C69">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
       <c r="A70" s="1">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>71</v>
-      </c>
-      <c r="C70">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
       <c r="A71" s="1">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>72</v>
-      </c>
-      <c r="C71">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
       <c r="A72" s="1">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>73</v>
-      </c>
-      <c r="C72">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
       <c r="A73" s="1">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>74</v>
-      </c>
-      <c r="C73">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
       <c r="A74" s="1">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>75</v>
-      </c>
-      <c r="C74">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
       <c r="A75" s="1">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>76</v>
-      </c>
-      <c r="C75">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
       <c r="A76" s="1">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>77</v>
-      </c>
-      <c r="C76">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
       <c r="A77" s="1">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>78</v>
-      </c>
-      <c r="C77">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
       <c r="A78" s="1">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>79</v>
-      </c>
-      <c r="C78">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
       <c r="A79" s="1">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>80</v>
-      </c>
-      <c r="C79">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
       <c r="A80" s="1">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>81</v>
-      </c>
-      <c r="C80">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
       <c r="A81" s="1">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>82</v>
-      </c>
-      <c r="C81">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
       <c r="A82" s="1">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>83</v>
-      </c>
-      <c r="C82">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
       <c r="A83" s="1">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>84</v>
-      </c>
-      <c r="C83">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
       <c r="A84" s="1">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>85</v>
-      </c>
-      <c r="C84">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
       <c r="A85" s="1">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>86</v>
-      </c>
-      <c r="C85">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
       <c r="A86" s="1">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>87</v>
-      </c>
-      <c r="C86">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
       <c r="A87" s="1">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>88</v>
-      </c>
-      <c r="C87">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
       <c r="A88" s="1">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>89</v>
-      </c>
-      <c r="C88">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
       <c r="A89" s="1">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>90</v>
-      </c>
-      <c r="C89">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
       <c r="A90" s="1">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>91</v>
-      </c>
-      <c r="C90">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
       <c r="A91" s="1">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>92</v>
-      </c>
-      <c r="C91">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
       <c r="A92" s="1">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>93</v>
-      </c>
-      <c r="C92">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
       <c r="A93" s="1">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>94</v>
-      </c>
-      <c r="C93">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
       <c r="A94" s="1">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>95</v>
-      </c>
-      <c r="C94">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
       <c r="A95" s="1">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>96</v>
-      </c>
-      <c r="C95">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
       <c r="A96" s="1">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>97</v>
-      </c>
-      <c r="C96">
-        <v>4</v>
+        <v>96</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -1879,10 +1651,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>98</v>
-      </c>
-      <c r="C97">
-        <v>7</v>
+        <v>97</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -1890,10 +1659,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>99</v>
-      </c>
-      <c r="C98">
-        <v>6</v>
+        <v>98</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -1901,10 +1667,10 @@
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C99">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -1912,10 +1678,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>101</v>
-      </c>
-      <c r="C100">
-        <v>7</v>
+        <v>100</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -1923,10 +1686,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>102</v>
-      </c>
-      <c r="C101">
-        <v>4</v>
+        <v>101</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -1934,10 +1694,7 @@
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>103</v>
-      </c>
-      <c r="C102">
-        <v>10</v>
+        <v>102</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -1945,10 +1702,7 @@
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>104</v>
-      </c>
-      <c r="C103">
-        <v>10</v>
+        <v>103</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -1956,10 +1710,7 @@
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>105</v>
-      </c>
-      <c r="C104">
-        <v>10</v>
+        <v>104</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -1967,10 +1718,7 @@
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>106</v>
-      </c>
-      <c r="C105">
-        <v>10</v>
+        <v>105</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -1978,10 +1726,7 @@
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>107</v>
-      </c>
-      <c r="C106">
-        <v>15</v>
+        <v>106</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -1989,10 +1734,7 @@
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>108</v>
-      </c>
-      <c r="C107">
-        <v>10</v>
+        <v>107</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -2000,10 +1742,7 @@
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>109</v>
-      </c>
-      <c r="C108">
-        <v>5</v>
+        <v>108</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -2011,10 +1750,7 @@
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>110</v>
-      </c>
-      <c r="C109">
-        <v>9</v>
+        <v>109</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -2022,10 +1758,7 @@
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>111</v>
-      </c>
-      <c r="C110">
-        <v>9</v>
+        <v>110</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -2033,10 +1766,7 @@
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>112</v>
-      </c>
-      <c r="C111">
-        <v>7</v>
+        <v>111</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -2044,373 +1774,279 @@
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>113</v>
-      </c>
-      <c r="C112">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
       <c r="A113" s="1">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>114</v>
-      </c>
-      <c r="C113">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
       <c r="A114" s="1">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>115</v>
-      </c>
-      <c r="C114">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
       <c r="A115" s="1">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>116</v>
-      </c>
-      <c r="C115">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
       <c r="A116" s="1">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>117</v>
-      </c>
-      <c r="C116">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
       <c r="A117" s="1">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>118</v>
-      </c>
-      <c r="C117">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
       <c r="A118" s="1">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>119</v>
-      </c>
-      <c r="C118">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
       <c r="A119" s="1">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>120</v>
-      </c>
-      <c r="C119">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
       <c r="A120" s="1">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>121</v>
-      </c>
-      <c r="C120">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
       <c r="A121" s="1">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>122</v>
-      </c>
-      <c r="C121">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
       <c r="A122" s="1">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>123</v>
-      </c>
-      <c r="C122">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
       <c r="A123" s="1">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>124</v>
-      </c>
-      <c r="C123">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
       <c r="A124" s="1">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>125</v>
-      </c>
-      <c r="C124">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
       <c r="A125" s="1">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>126</v>
-      </c>
-      <c r="C125">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
       <c r="A126" s="1">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>127</v>
-      </c>
-      <c r="C126">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
       <c r="A127" s="1">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>128</v>
-      </c>
-      <c r="C127">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
       <c r="A128" s="1">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>129</v>
-      </c>
-      <c r="C128">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
       <c r="A129" s="1">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>130</v>
-      </c>
-      <c r="C129">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
       <c r="A130" s="1">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>131</v>
-      </c>
-      <c r="C130">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
       <c r="A131" s="1">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>132</v>
-      </c>
-      <c r="C131">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
       <c r="A132" s="1">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>133</v>
-      </c>
-      <c r="C132">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
       <c r="A133" s="1">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>134</v>
-      </c>
-      <c r="C133">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
       <c r="A134" s="1">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>135</v>
-      </c>
-      <c r="C134">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
       <c r="A135" s="1">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>136</v>
-      </c>
-      <c r="C135">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
       <c r="A136" s="1">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>137</v>
-      </c>
-      <c r="C136">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
       <c r="A137" s="1">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>138</v>
-      </c>
-      <c r="C137">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
       <c r="A138" s="1">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>139</v>
-      </c>
-      <c r="C138">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
       <c r="A139" s="1">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>140</v>
-      </c>
-      <c r="C139">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
       <c r="A140" s="1">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>141</v>
-      </c>
-      <c r="C140">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
       <c r="A141" s="1">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>142</v>
-      </c>
-      <c r="C141">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
       <c r="A142" s="1">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>143</v>
-      </c>
-      <c r="C142">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
       <c r="A143" s="1">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>144</v>
-      </c>
-      <c r="C143">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
       <c r="A144" s="1">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>145</v>
-      </c>
-      <c r="C144">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
       <c r="A145" s="1">
         <v>143</v>
       </c>
       <c r="B145" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" s="1">
+        <v>144</v>
+      </c>
+      <c r="B146" t="s">
         <v>146</v>
-      </c>
-      <c r="C145">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
